--- a/test_workbook/work3_test/work3-2-17/製造品目詳細一覧_work.xlsx
+++ b/test_workbook/work3_test/work3-2-17/製造品目詳細一覧_work.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h29458\Desktop\共通品目詳細マスタ作成ツール\seizouhinmokushousai\test_workbook\work3_test\work3-2-17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB275EA-66EE-4BEC-BCA4-4E63BB6B483A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C130BC28-818C-48E6-96FF-97D50DBD656E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D04B64F5-64F3-4418-ABFF-79F389F7DC5E}"/>
+    <workbookView xWindow="5160" yWindow="2310" windowWidth="21600" windowHeight="9900" xr2:uid="{4FED0198-6C8D-41EF-8618-4CA22512603F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>品目CD</t>
   </si>
@@ -50,9 +50,27 @@
     <t>製造場所CD</t>
   </si>
   <si>
+    <t>P0001</t>
+  </si>
+  <si>
+    <t>部品A</t>
+  </si>
+  <si>
     <t>$D_PS_InHousePart</t>
   </si>
   <si>
+    <t>LOC01</t>
+  </si>
+  <si>
+    <t>P0002</t>
+  </si>
+  <si>
+    <t>部品B</t>
+  </si>
+  <si>
+    <t>LOC02</t>
+  </si>
+  <si>
     <t>P0003</t>
   </si>
   <si>
@@ -65,6 +83,33 @@
     <t>LOC03</t>
   </si>
   <si>
+    <t>P0004</t>
+  </si>
+  <si>
+    <t>部品D</t>
+  </si>
+  <si>
+    <t>LOC04</t>
+  </si>
+  <si>
+    <t>P0005</t>
+  </si>
+  <si>
+    <t>部品E</t>
+  </si>
+  <si>
+    <t>LOC05</t>
+  </si>
+  <si>
+    <t>P0006</t>
+  </si>
+  <si>
+    <t>部品F</t>
+  </si>
+  <si>
+    <t>LOC06</t>
+  </si>
+  <si>
     <t>P0007</t>
   </si>
   <si>
@@ -74,10 +119,13 @@
     <t>LOC07</t>
   </si>
   <si>
-    <t>製造LT</t>
-  </si>
-  <si>
-    <t>購入LT</t>
+    <t>P0008</t>
+  </si>
+  <si>
+    <t>部品H</t>
+  </si>
+  <si>
+    <t>LOC08</t>
   </si>
 </sst>
 </file>
@@ -460,15 +508,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D1348D-5A4F-444B-BCD7-8FE8362F5E88}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EB530B-3D95-40DF-820F-B9FDC39B3812}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,51 +528,117 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
